--- a/public/uploads/USDatafile-1541298299238.xlsx
+++ b/public/uploads/USDatafile-1541298299238.xlsx
@@ -5,22 +5,32 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thazh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMPE 280\EvictionLandJquery\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF39BD8-B2A5-4EF5-A038-71511D0A58BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798E215-BC47-4668-BB6E-A7E3C2F000CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">states!$A$1:$AA$868</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="86">
   <si>
     <t>GEOID</t>
   </si>
@@ -617,11 +627,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA868"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA869"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F528" workbookViewId="0">
+      <selection activeCell="AB869" sqref="AB869"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -706,7 +722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -789,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -872,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -955,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1121,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2117,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2188,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2401,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2543,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2614,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2685,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2839,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2916,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2993,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3147,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3224,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3378,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3461,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -3544,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -3627,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3710,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3793,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -3876,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -3959,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -4042,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -4125,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -4208,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -4291,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4374,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -4457,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -4623,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -4789,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -4866,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -4943,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -5020,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -5097,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -5174,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -5251,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5328,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -5405,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -5482,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -5559,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -5636,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -5713,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -5867,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -5944,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -6098,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -6264,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -6347,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -6430,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -6513,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -6596,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -6679,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -6762,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -6845,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -6928,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -7011,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -7094,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -7177,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -7260,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -7343,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -7509,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -7592,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -7675,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -7758,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -7841,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -7924,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -8007,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -8090,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -8173,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -8256,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -8339,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -8422,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -8505,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -8588,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -8671,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -8754,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -8991,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -9074,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -9157,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -9240,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -9323,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -9406,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -9489,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -9572,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -9655,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -9738,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -9821,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -9904,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -9987,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>40</v>
       </c>
@@ -10070,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>40</v>
       </c>
@@ -10153,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>40</v>
       </c>
@@ -10319,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>10</v>
       </c>
@@ -10402,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10</v>
       </c>
@@ -10485,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>10</v>
       </c>
@@ -10568,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>10</v>
       </c>
@@ -10651,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>10</v>
       </c>
@@ -10734,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>10</v>
       </c>
@@ -10817,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10</v>
       </c>
@@ -10900,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>10</v>
       </c>
@@ -10983,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>10</v>
       </c>
@@ -11066,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>10</v>
       </c>
@@ -11149,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>10</v>
       </c>
@@ -11315,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>10</v>
       </c>
@@ -11398,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>10</v>
       </c>
@@ -11481,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>10</v>
       </c>
@@ -11564,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>10</v>
       </c>
@@ -11730,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>11</v>
       </c>
@@ -11801,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11</v>
       </c>
@@ -11872,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>11</v>
       </c>
@@ -11943,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11</v>
       </c>
@@ -12014,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>11</v>
       </c>
@@ -12085,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>11</v>
       </c>
@@ -12156,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>11</v>
       </c>
@@ -12239,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>11</v>
       </c>
@@ -12322,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>11</v>
       </c>
@@ -12405,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>11</v>
       </c>
@@ -12488,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>11</v>
       </c>
@@ -12571,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>11</v>
       </c>
@@ -12654,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>11</v>
       </c>
@@ -12737,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>11</v>
       </c>
@@ -12808,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>11</v>
       </c>
@@ -12879,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>11</v>
       </c>
@@ -13033,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>12</v>
       </c>
@@ -13116,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>12</v>
       </c>
@@ -13199,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>12</v>
       </c>
@@ -13282,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>12</v>
       </c>
@@ -13365,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>12</v>
       </c>
@@ -13448,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>12</v>
       </c>
@@ -13531,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>12</v>
       </c>
@@ -13614,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>12</v>
       </c>
@@ -13697,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>12</v>
       </c>
@@ -13780,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>12</v>
       </c>
@@ -13863,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>12</v>
       </c>
@@ -13946,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>12</v>
       </c>
@@ -14029,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>12</v>
       </c>
@@ -14112,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>12</v>
       </c>
@@ -14195,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>12</v>
       </c>
@@ -14278,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>12</v>
       </c>
@@ -14444,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>13</v>
       </c>
@@ -14527,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>13</v>
       </c>
@@ -14610,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>13</v>
       </c>
@@ -14693,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>13</v>
       </c>
@@ -14776,7 +14792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>13</v>
       </c>
@@ -14859,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>13</v>
       </c>
@@ -14942,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>13</v>
       </c>
@@ -15025,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>13</v>
       </c>
@@ -15108,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>13</v>
       </c>
@@ -15191,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>13</v>
       </c>
@@ -15274,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>13</v>
       </c>
@@ -15357,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>13</v>
       </c>
@@ -15440,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>13</v>
       </c>
@@ -15523,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>13</v>
       </c>
@@ -15606,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>13</v>
       </c>
@@ -15689,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>13</v>
       </c>
@@ -15855,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>15</v>
       </c>
@@ -15938,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>15</v>
       </c>
@@ -16021,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>15</v>
       </c>
@@ -16104,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>15</v>
       </c>
@@ -16187,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>15</v>
       </c>
@@ -16270,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>15</v>
       </c>
@@ -16353,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>15</v>
       </c>
@@ -16436,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>15</v>
       </c>
@@ -16519,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>15</v>
       </c>
@@ -16602,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>15</v>
       </c>
@@ -16685,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>15</v>
       </c>
@@ -16768,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>15</v>
       </c>
@@ -16851,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>15</v>
       </c>
@@ -16934,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>15</v>
       </c>
@@ -17017,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>15</v>
       </c>
@@ -17100,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>15</v>
       </c>
@@ -17266,7 +17282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>16</v>
       </c>
@@ -17349,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>16</v>
       </c>
@@ -17432,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>16</v>
       </c>
@@ -17515,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>16</v>
       </c>
@@ -17598,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>16</v>
       </c>
@@ -17681,7 +17697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>16</v>
       </c>
@@ -17764,7 +17780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>16</v>
       </c>
@@ -17847,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>16</v>
       </c>
@@ -17930,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>16</v>
       </c>
@@ -18013,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>16</v>
       </c>
@@ -18096,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>16</v>
       </c>
@@ -18179,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>16</v>
       </c>
@@ -18262,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>16</v>
       </c>
@@ -18345,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>16</v>
       </c>
@@ -18428,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>16</v>
       </c>
@@ -18511,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>16</v>
       </c>
@@ -18677,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>17</v>
       </c>
@@ -18760,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>17</v>
       </c>
@@ -18843,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>17</v>
       </c>
@@ -18926,7 +18942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>17</v>
       </c>
@@ -19009,7 +19025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>17</v>
       </c>
@@ -19092,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>17</v>
       </c>
@@ -19175,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>17</v>
       </c>
@@ -19258,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>17</v>
       </c>
@@ -19341,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>17</v>
       </c>
@@ -19424,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>17</v>
       </c>
@@ -19507,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>17</v>
       </c>
@@ -19590,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>17</v>
       </c>
@@ -19673,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>17</v>
       </c>
@@ -19756,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>17</v>
       </c>
@@ -19839,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>17</v>
       </c>
@@ -19922,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>17</v>
       </c>
@@ -20088,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>18</v>
       </c>
@@ -20171,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>18</v>
       </c>
@@ -20254,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>18</v>
       </c>
@@ -20337,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>18</v>
       </c>
@@ -20420,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>18</v>
       </c>
@@ -20503,7 +20519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>18</v>
       </c>
@@ -20586,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>18</v>
       </c>
@@ -20669,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>18</v>
       </c>
@@ -20752,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>18</v>
       </c>
@@ -20835,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>18</v>
       </c>
@@ -20918,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>18</v>
       </c>
@@ -21001,7 +21017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>18</v>
       </c>
@@ -21084,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>18</v>
       </c>
@@ -21167,7 +21183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>18</v>
       </c>
@@ -21250,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>18</v>
       </c>
@@ -21333,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>18</v>
       </c>
@@ -21499,7 +21515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>19</v>
       </c>
@@ -21582,7 +21598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>19</v>
       </c>
@@ -21665,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>19</v>
       </c>
@@ -21748,7 +21764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>19</v>
       </c>
@@ -21831,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>19</v>
       </c>
@@ -21914,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>19</v>
       </c>
@@ -21997,7 +22013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>19</v>
       </c>
@@ -22080,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>19</v>
       </c>
@@ -22163,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>19</v>
       </c>
@@ -22246,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>19</v>
       </c>
@@ -22329,7 +22345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>19</v>
       </c>
@@ -22412,7 +22428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>19</v>
       </c>
@@ -22495,7 +22511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>19</v>
       </c>
@@ -22578,7 +22594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>19</v>
       </c>
@@ -22661,7 +22677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>19</v>
       </c>
@@ -22744,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>19</v>
       </c>
@@ -22910,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>20</v>
       </c>
@@ -22993,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>20</v>
       </c>
@@ -23076,7 +23092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>20</v>
       </c>
@@ -23159,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>20</v>
       </c>
@@ -23242,7 +23258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>20</v>
       </c>
@@ -23325,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>20</v>
       </c>
@@ -23408,7 +23424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>20</v>
       </c>
@@ -23491,7 +23507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>20</v>
       </c>
@@ -23574,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>20</v>
       </c>
@@ -23657,7 +23673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>20</v>
       </c>
@@ -23740,7 +23756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>20</v>
       </c>
@@ -23823,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>20</v>
       </c>
@@ -23906,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>20</v>
       </c>
@@ -23989,7 +24005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>20</v>
       </c>
@@ -24072,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>20</v>
       </c>
@@ -24155,7 +24171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>20</v>
       </c>
@@ -24321,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>21</v>
       </c>
@@ -24404,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>21</v>
       </c>
@@ -24487,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>21</v>
       </c>
@@ -24570,7 +24586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>21</v>
       </c>
@@ -24653,7 +24669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>21</v>
       </c>
@@ -24736,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>21</v>
       </c>
@@ -24819,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>21</v>
       </c>
@@ -24902,7 +24918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>21</v>
       </c>
@@ -24985,7 +25001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>21</v>
       </c>
@@ -25068,7 +25084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>21</v>
       </c>
@@ -25151,7 +25167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>21</v>
       </c>
@@ -25234,7 +25250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>21</v>
       </c>
@@ -25317,7 +25333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>21</v>
       </c>
@@ -25400,7 +25416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>21</v>
       </c>
@@ -25483,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>21</v>
       </c>
@@ -25566,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>21</v>
       </c>
@@ -25732,7 +25748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>22</v>
       </c>
@@ -25815,7 +25831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>22</v>
       </c>
@@ -25898,7 +25914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>22</v>
       </c>
@@ -25981,7 +25997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>22</v>
       </c>
@@ -26064,7 +26080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>22</v>
       </c>
@@ -26147,7 +26163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>22</v>
       </c>
@@ -26230,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>22</v>
       </c>
@@ -26313,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>22</v>
       </c>
@@ -26396,7 +26412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>22</v>
       </c>
@@ -26479,7 +26495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>22</v>
       </c>
@@ -26562,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>22</v>
       </c>
@@ -26645,7 +26661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>22</v>
       </c>
@@ -26728,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>22</v>
       </c>
@@ -26811,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>22</v>
       </c>
@@ -26894,7 +26910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>22</v>
       </c>
@@ -26977,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>22</v>
       </c>
@@ -27143,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>23</v>
       </c>
@@ -27226,7 +27242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>23</v>
       </c>
@@ -27309,7 +27325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>23</v>
       </c>
@@ -27392,7 +27408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>23</v>
       </c>
@@ -27475,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>23</v>
       </c>
@@ -27558,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>23</v>
       </c>
@@ -27641,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>23</v>
       </c>
@@ -27724,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>23</v>
       </c>
@@ -27807,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>23</v>
       </c>
@@ -27890,7 +27906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>23</v>
       </c>
@@ -27973,7 +27989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>23</v>
       </c>
@@ -28056,7 +28072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>23</v>
       </c>
@@ -28139,7 +28155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>23</v>
       </c>
@@ -28222,7 +28238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>23</v>
       </c>
@@ -28305,7 +28321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>23</v>
       </c>
@@ -28388,7 +28404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>23</v>
       </c>
@@ -28554,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>24</v>
       </c>
@@ -28637,7 +28653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>24</v>
       </c>
@@ -28720,7 +28736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>24</v>
       </c>
@@ -28803,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>24</v>
       </c>
@@ -28886,7 +28902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>24</v>
       </c>
@@ -28969,7 +28985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>24</v>
       </c>
@@ -29052,7 +29068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>24</v>
       </c>
@@ -29135,7 +29151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>24</v>
       </c>
@@ -29218,7 +29234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>24</v>
       </c>
@@ -29301,7 +29317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>24</v>
       </c>
@@ -29384,7 +29400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>24</v>
       </c>
@@ -29467,7 +29483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>24</v>
       </c>
@@ -29550,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>24</v>
       </c>
@@ -29633,7 +29649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>24</v>
       </c>
@@ -29716,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>24</v>
       </c>
@@ -29799,7 +29815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>24</v>
       </c>
@@ -29965,7 +29981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>25</v>
       </c>
@@ -30036,7 +30052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>25</v>
       </c>
@@ -30119,7 +30135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>25</v>
       </c>
@@ -30202,7 +30218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>25</v>
       </c>
@@ -30285,7 +30301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>25</v>
       </c>
@@ -30368,7 +30384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>25</v>
       </c>
@@ -30451,7 +30467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>25</v>
       </c>
@@ -30534,7 +30550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>25</v>
       </c>
@@ -30617,7 +30633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>25</v>
       </c>
@@ -30700,7 +30716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>25</v>
       </c>
@@ -30783,7 +30799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>25</v>
       </c>
@@ -30866,7 +30882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>25</v>
       </c>
@@ -30949,7 +30965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>25</v>
       </c>
@@ -31032,7 +31048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>25</v>
       </c>
@@ -31115,7 +31131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>25</v>
       </c>
@@ -31198,7 +31214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>25</v>
       </c>
@@ -31364,7 +31380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>26</v>
       </c>
@@ -31447,7 +31463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>26</v>
       </c>
@@ -31530,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>26</v>
       </c>
@@ -31613,7 +31629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>26</v>
       </c>
@@ -31696,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>26</v>
       </c>
@@ -31779,7 +31795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>26</v>
       </c>
@@ -31862,7 +31878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>26</v>
       </c>
@@ -31945,7 +31961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>26</v>
       </c>
@@ -32028,7 +32044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>26</v>
       </c>
@@ -32111,7 +32127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>26</v>
       </c>
@@ -32194,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>26</v>
       </c>
@@ -32277,7 +32293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>26</v>
       </c>
@@ -32360,7 +32376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>26</v>
       </c>
@@ -32443,7 +32459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>26</v>
       </c>
@@ -32526,7 +32542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>26</v>
       </c>
@@ -32609,7 +32625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>26</v>
       </c>
@@ -32775,7 +32791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>27</v>
       </c>
@@ -32858,7 +32874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>27</v>
       </c>
@@ -32941,7 +32957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>27</v>
       </c>
@@ -33024,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>27</v>
       </c>
@@ -33107,7 +33123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>27</v>
       </c>
@@ -33190,7 +33206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>27</v>
       </c>
@@ -33273,7 +33289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>27</v>
       </c>
@@ -33356,7 +33372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>27</v>
       </c>
@@ -33439,7 +33455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>27</v>
       </c>
@@ -33522,7 +33538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>27</v>
       </c>
@@ -33605,7 +33621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>27</v>
       </c>
@@ -33688,7 +33704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>27</v>
       </c>
@@ -33771,7 +33787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>27</v>
       </c>
@@ -33854,7 +33870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>27</v>
       </c>
@@ -33937,7 +33953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>27</v>
       </c>
@@ -34020,7 +34036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>27</v>
       </c>
@@ -34186,7 +34202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>28</v>
       </c>
@@ -34269,7 +34285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>28</v>
       </c>
@@ -34352,7 +34368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>28</v>
       </c>
@@ -34435,7 +34451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>28</v>
       </c>
@@ -34518,7 +34534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>28</v>
       </c>
@@ -34601,7 +34617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>28</v>
       </c>
@@ -34684,7 +34700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>28</v>
       </c>
@@ -34767,7 +34783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>28</v>
       </c>
@@ -34850,7 +34866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>28</v>
       </c>
@@ -34933,7 +34949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>28</v>
       </c>
@@ -35016,7 +35032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>28</v>
       </c>
@@ -35099,7 +35115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>28</v>
       </c>
@@ -35182,7 +35198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>28</v>
       </c>
@@ -35265,7 +35281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>28</v>
       </c>
@@ -35348,7 +35364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>28</v>
       </c>
@@ -35431,7 +35447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>28</v>
       </c>
@@ -35597,7 +35613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>29</v>
       </c>
@@ -35680,7 +35696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>29</v>
       </c>
@@ -35763,7 +35779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>29</v>
       </c>
@@ -35846,7 +35862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>29</v>
       </c>
@@ -35929,7 +35945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>29</v>
       </c>
@@ -36012,7 +36028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>29</v>
       </c>
@@ -36095,7 +36111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>29</v>
       </c>
@@ -36178,7 +36194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>29</v>
       </c>
@@ -36261,7 +36277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>29</v>
       </c>
@@ -36344,7 +36360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>29</v>
       </c>
@@ -36427,7 +36443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>29</v>
       </c>
@@ -36510,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>29</v>
       </c>
@@ -36593,7 +36609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>29</v>
       </c>
@@ -36676,7 +36692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>29</v>
       </c>
@@ -36759,7 +36775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>29</v>
       </c>
@@ -36842,7 +36858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>29</v>
       </c>
@@ -37008,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>30</v>
       </c>
@@ -37091,7 +37107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>30</v>
       </c>
@@ -37174,7 +37190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>30</v>
       </c>
@@ -37257,7 +37273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>30</v>
       </c>
@@ -37340,7 +37356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>30</v>
       </c>
@@ -37423,7 +37439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>30</v>
       </c>
@@ -37506,7 +37522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>30</v>
       </c>
@@ -37589,7 +37605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>30</v>
       </c>
@@ -37672,7 +37688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>30</v>
       </c>
@@ -37755,7 +37771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>30</v>
       </c>
@@ -37838,7 +37854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>30</v>
       </c>
@@ -37921,7 +37937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>30</v>
       </c>
@@ -38004,7 +38020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>30</v>
       </c>
@@ -38087,7 +38103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>30</v>
       </c>
@@ -38170,7 +38186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>30</v>
       </c>
@@ -38253,7 +38269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>30</v>
       </c>
@@ -38419,7 +38435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>31</v>
       </c>
@@ -38502,7 +38518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>31</v>
       </c>
@@ -38585,7 +38601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>31</v>
       </c>
@@ -38668,7 +38684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>31</v>
       </c>
@@ -38751,7 +38767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>31</v>
       </c>
@@ -38834,7 +38850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>31</v>
       </c>
@@ -38917,7 +38933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>31</v>
       </c>
@@ -39000,7 +39016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>31</v>
       </c>
@@ -39083,7 +39099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>31</v>
       </c>
@@ -39166,7 +39182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>31</v>
       </c>
@@ -39249,7 +39265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>31</v>
       </c>
@@ -39332,7 +39348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>31</v>
       </c>
@@ -39415,7 +39431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>31</v>
       </c>
@@ -39498,7 +39514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>31</v>
       </c>
@@ -39581,7 +39597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>31</v>
       </c>
@@ -39664,7 +39680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>31</v>
       </c>
@@ -39830,7 +39846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>32</v>
       </c>
@@ -39913,7 +39929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>32</v>
       </c>
@@ -39996,7 +40012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>32</v>
       </c>
@@ -40079,7 +40095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>32</v>
       </c>
@@ -40162,7 +40178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>32</v>
       </c>
@@ -40245,7 +40261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>32</v>
       </c>
@@ -40328,7 +40344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>32</v>
       </c>
@@ -40411,7 +40427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>32</v>
       </c>
@@ -40494,7 +40510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>32</v>
       </c>
@@ -40577,7 +40593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>32</v>
       </c>
@@ -40660,7 +40676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>32</v>
       </c>
@@ -40743,7 +40759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>32</v>
       </c>
@@ -40826,7 +40842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>32</v>
       </c>
@@ -40909,7 +40925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>32</v>
       </c>
@@ -40992,7 +41008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>32</v>
       </c>
@@ -41075,7 +41091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>32</v>
       </c>
@@ -41241,7 +41257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>33</v>
       </c>
@@ -41312,7 +41328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>33</v>
       </c>
@@ -41383,7 +41399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>33</v>
       </c>
@@ -41454,7 +41470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>33</v>
       </c>
@@ -41525,7 +41541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>33</v>
       </c>
@@ -41608,7 +41624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>33</v>
       </c>
@@ -41691,7 +41707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>33</v>
       </c>
@@ -41774,7 +41790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>33</v>
       </c>
@@ -41857,7 +41873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>33</v>
       </c>
@@ -41940,7 +41956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>33</v>
       </c>
@@ -42023,7 +42039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>33</v>
       </c>
@@ -42106,7 +42122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>33</v>
       </c>
@@ -42189,7 +42205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>33</v>
       </c>
@@ -42272,7 +42288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>33</v>
       </c>
@@ -42355,7 +42371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>33</v>
       </c>
@@ -42438,7 +42454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>33</v>
       </c>
@@ -42604,7 +42620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>34</v>
       </c>
@@ -42675,7 +42691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>34</v>
       </c>
@@ -42758,7 +42774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>34</v>
       </c>
@@ -42841,7 +42857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>34</v>
       </c>
@@ -42924,7 +42940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>34</v>
       </c>
@@ -43007,7 +43023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>34</v>
       </c>
@@ -43090,7 +43106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>34</v>
       </c>
@@ -43173,7 +43189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>34</v>
       </c>
@@ -43256,7 +43272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>34</v>
       </c>
@@ -43339,7 +43355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>34</v>
       </c>
@@ -43422,7 +43438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>34</v>
       </c>
@@ -43505,7 +43521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>34</v>
       </c>
@@ -43588,7 +43604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>34</v>
       </c>
@@ -43671,7 +43687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>34</v>
       </c>
@@ -43754,7 +43770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>34</v>
       </c>
@@ -43837,7 +43853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>34</v>
       </c>
@@ -44003,7 +44019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>35</v>
       </c>
@@ -44086,7 +44102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>35</v>
       </c>
@@ -44169,7 +44185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>35</v>
       </c>
@@ -44252,7 +44268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>35</v>
       </c>
@@ -44335,7 +44351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>35</v>
       </c>
@@ -44418,7 +44434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>35</v>
       </c>
@@ -44501,7 +44517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>35</v>
       </c>
@@ -44584,7 +44600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>35</v>
       </c>
@@ -44667,7 +44683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>35</v>
       </c>
@@ -44750,7 +44766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>35</v>
       </c>
@@ -44833,7 +44849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>35</v>
       </c>
@@ -44916,7 +44932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>35</v>
       </c>
@@ -44999,7 +45015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>35</v>
       </c>
@@ -45082,7 +45098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>35</v>
       </c>
@@ -45165,7 +45181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>35</v>
       </c>
@@ -45248,7 +45264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>35</v>
       </c>
@@ -45414,7 +45430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>36</v>
       </c>
@@ -45497,7 +45513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>36</v>
       </c>
@@ -45580,7 +45596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>36</v>
       </c>
@@ -45663,7 +45679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>36</v>
       </c>
@@ -45746,7 +45762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>36</v>
       </c>
@@ -45829,7 +45845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>36</v>
       </c>
@@ -45912,7 +45928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>36</v>
       </c>
@@ -45995,7 +46011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>36</v>
       </c>
@@ -46078,7 +46094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>36</v>
       </c>
@@ -46161,7 +46177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>36</v>
       </c>
@@ -46244,7 +46260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>36</v>
       </c>
@@ -46327,7 +46343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>36</v>
       </c>
@@ -46410,7 +46426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>36</v>
       </c>
@@ -46493,7 +46509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>36</v>
       </c>
@@ -46576,7 +46592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>36</v>
       </c>
@@ -46659,7 +46675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>36</v>
       </c>
@@ -46825,7 +46841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>37</v>
       </c>
@@ -46908,7 +46924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>37</v>
       </c>
@@ -46991,7 +47007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>37</v>
       </c>
@@ -47074,7 +47090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>37</v>
       </c>
@@ -47157,7 +47173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>37</v>
       </c>
@@ -47240,7 +47256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>37</v>
       </c>
@@ -47323,7 +47339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>37</v>
       </c>
@@ -47406,7 +47422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>37</v>
       </c>
@@ -47489,7 +47505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>37</v>
       </c>
@@ -47572,7 +47588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>37</v>
       </c>
@@ -47655,7 +47671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>37</v>
       </c>
@@ -47738,7 +47754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>37</v>
       </c>
@@ -47821,7 +47837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>37</v>
       </c>
@@ -47904,7 +47920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>37</v>
       </c>
@@ -47987,7 +48003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>37</v>
       </c>
@@ -48070,7 +48086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>37</v>
       </c>
@@ -48236,7 +48252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>38</v>
       </c>
@@ -48313,7 +48329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>38</v>
       </c>
@@ -48390,7 +48406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>38</v>
       </c>
@@ -48467,7 +48483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>38</v>
       </c>
@@ -48544,7 +48560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>38</v>
       </c>
@@ -48621,7 +48637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>38</v>
       </c>
@@ -48698,7 +48714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>38</v>
       </c>
@@ -48775,7 +48791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>38</v>
       </c>
@@ -48852,7 +48868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>38</v>
       </c>
@@ -48929,7 +48945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>38</v>
       </c>
@@ -49006,7 +49022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>38</v>
       </c>
@@ -49083,7 +49099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>38</v>
       </c>
@@ -49160,7 +49176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>38</v>
       </c>
@@ -49237,7 +49253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>38</v>
       </c>
@@ -49314,7 +49330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>38</v>
       </c>
@@ -49391,7 +49407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>38</v>
       </c>
@@ -49545,7 +49561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>39</v>
       </c>
@@ -49628,7 +49644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>39</v>
       </c>
@@ -49711,7 +49727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>39</v>
       </c>
@@ -49794,7 +49810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>39</v>
       </c>
@@ -49877,7 +49893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>39</v>
       </c>
@@ -49960,7 +49976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>39</v>
       </c>
@@ -50043,7 +50059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>39</v>
       </c>
@@ -50126,7 +50142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>39</v>
       </c>
@@ -50209,7 +50225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>39</v>
       </c>
@@ -50292,7 +50308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>39</v>
       </c>
@@ -50375,7 +50391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>39</v>
       </c>
@@ -50458,7 +50474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>39</v>
       </c>
@@ -50541,7 +50557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>39</v>
       </c>
@@ -50624,7 +50640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>39</v>
       </c>
@@ -50707,7 +50723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>39</v>
       </c>
@@ -50790,7 +50806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>39</v>
       </c>
@@ -50956,7 +50972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>40</v>
       </c>
@@ -51039,7 +51055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>40</v>
       </c>
@@ -51122,7 +51138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>40</v>
       </c>
@@ -51205,7 +51221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>40</v>
       </c>
@@ -51288,7 +51304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>40</v>
       </c>
@@ -51371,7 +51387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>40</v>
       </c>
@@ -51454,7 +51470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>40</v>
       </c>
@@ -51537,7 +51553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>40</v>
       </c>
@@ -51620,7 +51636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>40</v>
       </c>
@@ -51703,7 +51719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>40</v>
       </c>
@@ -51786,7 +51802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>40</v>
       </c>
@@ -51869,7 +51885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>40</v>
       </c>
@@ -51952,7 +51968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>40</v>
       </c>
@@ -52035,7 +52051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>40</v>
       </c>
@@ -52118,7 +52134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>40</v>
       </c>
@@ -52201,7 +52217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>40</v>
       </c>
@@ -52367,7 +52383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>41</v>
       </c>
@@ -52450,7 +52466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>41</v>
       </c>
@@ -52533,7 +52549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>41</v>
       </c>
@@ -52616,7 +52632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>41</v>
       </c>
@@ -52699,7 +52715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>41</v>
       </c>
@@ -52782,7 +52798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>41</v>
       </c>
@@ -52865,7 +52881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>41</v>
       </c>
@@ -52948,7 +52964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>41</v>
       </c>
@@ -53031,7 +53047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>41</v>
       </c>
@@ -53114,7 +53130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>41</v>
       </c>
@@ -53197,7 +53213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>41</v>
       </c>
@@ -53280,7 +53296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>41</v>
       </c>
@@ -53363,7 +53379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>41</v>
       </c>
@@ -53446,7 +53462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>41</v>
       </c>
@@ -53529,7 +53545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>41</v>
       </c>
@@ -53612,7 +53628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>41</v>
       </c>
@@ -53778,7 +53794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>42</v>
       </c>
@@ -53861,7 +53877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>42</v>
       </c>
@@ -53944,7 +53960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>42</v>
       </c>
@@ -54027,7 +54043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>42</v>
       </c>
@@ -54110,7 +54126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>42</v>
       </c>
@@ -54193,7 +54209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>42</v>
       </c>
@@ -54276,7 +54292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>42</v>
       </c>
@@ -54359,7 +54375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>42</v>
       </c>
@@ -54442,7 +54458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>42</v>
       </c>
@@ -54525,7 +54541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>42</v>
       </c>
@@ -54608,7 +54624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>42</v>
       </c>
@@ -54691,7 +54707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>42</v>
       </c>
@@ -54774,7 +54790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>42</v>
       </c>
@@ -54857,7 +54873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>42</v>
       </c>
@@ -54940,7 +54956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>42</v>
       </c>
@@ -55023,7 +55039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>42</v>
       </c>
@@ -55189,7 +55205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>44</v>
       </c>
@@ -55260,7 +55276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>44</v>
       </c>
@@ -55343,7 +55359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>44</v>
       </c>
@@ -55414,7 +55430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>44</v>
       </c>
@@ -55485,7 +55501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>44</v>
       </c>
@@ -55556,7 +55572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>44</v>
       </c>
@@ -55627,7 +55643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>44</v>
       </c>
@@ -55698,7 +55714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>44</v>
       </c>
@@ -55781,7 +55797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>44</v>
       </c>
@@ -55864,7 +55880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>44</v>
       </c>
@@ -55947,7 +55963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>44</v>
       </c>
@@ -56030,7 +56046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>44</v>
       </c>
@@ -56113,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>44</v>
       </c>
@@ -56196,7 +56212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>44</v>
       </c>
@@ -56279,7 +56295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>44</v>
       </c>
@@ -56362,7 +56378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>44</v>
       </c>
@@ -56528,7 +56544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>45</v>
       </c>
@@ -56599,7 +56615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>45</v>
       </c>
@@ -56670,7 +56686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>45</v>
       </c>
@@ -56741,7 +56757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>45</v>
       </c>
@@ -56812,7 +56828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>45</v>
       </c>
@@ -56883,7 +56899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>45</v>
       </c>
@@ -56954,7 +56970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>45</v>
       </c>
@@ -57025,7 +57041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>45</v>
       </c>
@@ -57096,7 +57112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>45</v>
       </c>
@@ -57167,7 +57183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>45</v>
       </c>
@@ -57250,7 +57266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>45</v>
       </c>
@@ -57333,7 +57349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>45</v>
       </c>
@@ -57416,7 +57432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>45</v>
       </c>
@@ -57499,7 +57515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>45</v>
       </c>
@@ -57582,7 +57598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>45</v>
       </c>
@@ -57665,7 +57681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>45</v>
       </c>
@@ -57831,7 +57847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>46</v>
       </c>
@@ -57902,7 +57918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>46</v>
       </c>
@@ -57973,7 +57989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>46</v>
       </c>
@@ -58044,7 +58060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>46</v>
       </c>
@@ -58115,7 +58131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>46</v>
       </c>
@@ -58186,7 +58202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>46</v>
       </c>
@@ -58257,7 +58273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>46</v>
       </c>
@@ -58328,7 +58344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>46</v>
       </c>
@@ -58399,7 +58415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>46</v>
       </c>
@@ -58470,7 +58486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>46</v>
       </c>
@@ -58541,7 +58557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>46</v>
       </c>
@@ -58618,7 +58634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>46</v>
       </c>
@@ -58695,7 +58711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>46</v>
       </c>
@@ -58772,7 +58788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>46</v>
       </c>
@@ -58849,7 +58865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>46</v>
       </c>
@@ -58926,7 +58942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>46</v>
       </c>
@@ -59080,7 +59096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>47</v>
       </c>
@@ -59163,7 +59179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>47</v>
       </c>
@@ -59246,7 +59262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>47</v>
       </c>
@@ -59329,7 +59345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>47</v>
       </c>
@@ -59412,7 +59428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>47</v>
       </c>
@@ -59495,7 +59511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>47</v>
       </c>
@@ -59578,7 +59594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>47</v>
       </c>
@@ -59661,7 +59677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>47</v>
       </c>
@@ -59744,7 +59760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>47</v>
       </c>
@@ -59827,7 +59843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>47</v>
       </c>
@@ -59910,7 +59926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>47</v>
       </c>
@@ -59993,7 +60009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>47</v>
       </c>
@@ -60076,7 +60092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>47</v>
       </c>
@@ -60159,7 +60175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>47</v>
       </c>
@@ -60242,7 +60258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>47</v>
       </c>
@@ -60325,7 +60341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>47</v>
       </c>
@@ -60491,7 +60507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>48</v>
       </c>
@@ -60574,7 +60590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>48</v>
       </c>
@@ -60657,7 +60673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>48</v>
       </c>
@@ -60740,7 +60756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>48</v>
       </c>
@@ -60823,7 +60839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>48</v>
       </c>
@@ -60906,7 +60922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>48</v>
       </c>
@@ -60989,7 +61005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>48</v>
       </c>
@@ -61072,7 +61088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>48</v>
       </c>
@@ -61155,7 +61171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>48</v>
       </c>
@@ -61238,7 +61254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>48</v>
       </c>
@@ -61321,7 +61337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>48</v>
       </c>
@@ -61404,7 +61420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>48</v>
       </c>
@@ -61487,7 +61503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>48</v>
       </c>
@@ -61570,7 +61586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>48</v>
       </c>
@@ -61653,7 +61669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>48</v>
       </c>
@@ -61736,7 +61752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>48</v>
       </c>
@@ -61902,7 +61918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>49</v>
       </c>
@@ -61985,7 +62001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>49</v>
       </c>
@@ -62068,7 +62084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>49</v>
       </c>
@@ -62151,7 +62167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>49</v>
       </c>
@@ -62234,7 +62250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>49</v>
       </c>
@@ -62317,7 +62333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>49</v>
       </c>
@@ -62400,7 +62416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>49</v>
       </c>
@@ -62483,7 +62499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>49</v>
       </c>
@@ -62566,7 +62582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>49</v>
       </c>
@@ -62649,7 +62665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>49</v>
       </c>
@@ -62732,7 +62748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>49</v>
       </c>
@@ -62815,7 +62831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>49</v>
       </c>
@@ -62898,7 +62914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>49</v>
       </c>
@@ -62981,7 +62997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>49</v>
       </c>
@@ -63064,7 +63080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>49</v>
       </c>
@@ -63147,7 +63163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>49</v>
       </c>
@@ -63313,7 +63329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>50</v>
       </c>
@@ -63396,7 +63412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>50</v>
       </c>
@@ -63479,7 +63495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>50</v>
       </c>
@@ -63562,7 +63578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>50</v>
       </c>
@@ -63645,7 +63661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>50</v>
       </c>
@@ -63728,7 +63744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>50</v>
       </c>
@@ -63811,7 +63827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>50</v>
       </c>
@@ -63894,7 +63910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>50</v>
       </c>
@@ -63977,7 +63993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>50</v>
       </c>
@@ -64060,7 +64076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>50</v>
       </c>
@@ -64143,7 +64159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>50</v>
       </c>
@@ -64226,7 +64242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>50</v>
       </c>
@@ -64309,7 +64325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>50</v>
       </c>
@@ -64392,7 +64408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>50</v>
       </c>
@@ -64475,7 +64491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>50</v>
       </c>
@@ -64558,7 +64574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>50</v>
       </c>
@@ -64724,7 +64740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>51</v>
       </c>
@@ -64807,7 +64823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>51</v>
       </c>
@@ -64890,7 +64906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>51</v>
       </c>
@@ -64973,7 +64989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>51</v>
       </c>
@@ -65056,7 +65072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>51</v>
       </c>
@@ -65139,7 +65155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>51</v>
       </c>
@@ -65222,7 +65238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>51</v>
       </c>
@@ -65305,7 +65321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>51</v>
       </c>
@@ -65388,7 +65404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>51</v>
       </c>
@@ -65471,7 +65487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>51</v>
       </c>
@@ -65554,7 +65570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>51</v>
       </c>
@@ -65637,7 +65653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>51</v>
       </c>
@@ -65720,7 +65736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>51</v>
       </c>
@@ -65803,7 +65819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>51</v>
       </c>
@@ -65886,7 +65902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>51</v>
       </c>
@@ -65969,7 +65985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>51</v>
       </c>
@@ -66135,7 +66151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>53</v>
       </c>
@@ -66218,7 +66234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>53</v>
       </c>
@@ -66301,7 +66317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>53</v>
       </c>
@@ -66384,7 +66400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>53</v>
       </c>
@@ -66467,7 +66483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>53</v>
       </c>
@@ -66550,7 +66566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>53</v>
       </c>
@@ -66633,7 +66649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>53</v>
       </c>
@@ -66716,7 +66732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>53</v>
       </c>
@@ -66799,7 +66815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>53</v>
       </c>
@@ -66882,7 +66898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>53</v>
       </c>
@@ -66965,7 +66981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>53</v>
       </c>
@@ -67048,7 +67064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>53</v>
       </c>
@@ -67131,7 +67147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>53</v>
       </c>
@@ -67214,7 +67230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>53</v>
       </c>
@@ -67297,7 +67313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>53</v>
       </c>
@@ -67380,7 +67396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>53</v>
       </c>
@@ -67546,7 +67562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>54</v>
       </c>
@@ -67629,7 +67645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>54</v>
       </c>
@@ -67712,7 +67728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>54</v>
       </c>
@@ -67795,7 +67811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>54</v>
       </c>
@@ -67878,7 +67894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>54</v>
       </c>
@@ -67961,7 +67977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>54</v>
       </c>
@@ -68044,7 +68060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>54</v>
       </c>
@@ -68127,7 +68143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>54</v>
       </c>
@@ -68210,7 +68226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>54</v>
       </c>
@@ -68293,7 +68309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>54</v>
       </c>
@@ -68376,7 +68392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>54</v>
       </c>
@@ -68459,7 +68475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>54</v>
       </c>
@@ -68542,7 +68558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>54</v>
       </c>
@@ -68625,7 +68641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>54</v>
       </c>
@@ -68708,7 +68724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>54</v>
       </c>
@@ -68791,7 +68807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>54</v>
       </c>
@@ -68957,7 +68973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>55</v>
       </c>
@@ -69040,7 +69056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>55</v>
       </c>
@@ -69123,7 +69139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>55</v>
       </c>
@@ -69206,7 +69222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>55</v>
       </c>
@@ -69289,7 +69305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>55</v>
       </c>
@@ -69372,7 +69388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>55</v>
       </c>
@@ -69455,7 +69471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>55</v>
       </c>
@@ -69538,7 +69554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>55</v>
       </c>
@@ -69621,7 +69637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>55</v>
       </c>
@@ -69704,7 +69720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>55</v>
       </c>
@@ -69787,7 +69803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>55</v>
       </c>
@@ -69870,7 +69886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>55</v>
       </c>
@@ -69953,7 +69969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>55</v>
       </c>
@@ -70036,7 +70052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>55</v>
       </c>
@@ -70119,7 +70135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>55</v>
       </c>
@@ -70202,7 +70218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>55</v>
       </c>
@@ -70368,7 +70384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>56</v>
       </c>
@@ -70451,7 +70467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>56</v>
       </c>
@@ -70534,7 +70550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>56</v>
       </c>
@@ -70617,7 +70633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>56</v>
       </c>
@@ -70700,7 +70716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>56</v>
       </c>
@@ -70783,7 +70799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>56</v>
       </c>
@@ -70866,7 +70882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>56</v>
       </c>
@@ -70949,7 +70965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>56</v>
       </c>
@@ -71032,7 +71048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>56</v>
       </c>
@@ -71115,7 +71131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>56</v>
       </c>
@@ -71198,7 +71214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>56</v>
       </c>
@@ -71281,7 +71297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>56</v>
       </c>
@@ -71364,7 +71380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>56</v>
       </c>
@@ -71447,7 +71463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>56</v>
       </c>
@@ -71530,7 +71546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>56</v>
       </c>
@@ -71613,7 +71629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>56</v>
       </c>
@@ -71779,8 +71795,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="869" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>60</v>
+      </c>
+      <c r="B869">
+        <v>2016</v>
+      </c>
+      <c r="C869" t="s">
+        <v>29</v>
+      </c>
+      <c r="D869" t="s">
+        <v>29</v>
+      </c>
+      <c r="E869">
+        <f>SUBTOTAL(9,E2:E868)</f>
+        <v>316515021</v>
+      </c>
+      <c r="F869">
+        <f>SUBTOTAL(9,F2:F868)</f>
+        <v>543.81000000000029</v>
+      </c>
+      <c r="G869">
+        <f>SUBTOTAL(9,G2:G868)</f>
+        <v>38372860</v>
+      </c>
+      <c r="H869">
+        <f>SUBTOTAL(9,H2:H868)</f>
+        <v>1760.0399999999997</v>
+      </c>
+      <c r="I869">
+        <f>SUBTOTAL(9,I2:I868)</f>
+        <v>45321</v>
+      </c>
+      <c r="J869">
+        <f>SUBTOTAL(9,J2:J868)</f>
+        <v>2786441</v>
+      </c>
+      <c r="K869">
+        <f>SUBTOTAL(9,K2:K868)</f>
+        <v>10077100</v>
+      </c>
+      <c r="L869">
+        <f>SUBTOTAL(9,L2:L868)</f>
+        <v>1529.1</v>
+      </c>
+      <c r="M869">
+        <f>SUBTOTAL(9,M2:M868)</f>
+        <v>3546.1600000000012</v>
+      </c>
+      <c r="N869">
+        <f>SUBTOTAL(9,N2:N868)</f>
+        <v>556.41000000000008</v>
+      </c>
+      <c r="O869">
+        <f>SUBTOTAL(9,O2:O868)</f>
+        <v>571.07000000000005</v>
+      </c>
+      <c r="P869">
+        <f>SUBTOTAL(9,P2:P868)</f>
+        <v>72.800000000000011</v>
+      </c>
+      <c r="Q869">
+        <f>SUBTOTAL(9,Q2:Q868)</f>
+        <v>198.31999999999991</v>
+      </c>
+      <c r="R869">
+        <f>SUBTOTAL(9,R2:R868)</f>
+        <v>15.309999999999992</v>
+      </c>
+      <c r="S869">
+        <f>SUBTOTAL(9,S2:S868)</f>
+        <v>131.36999999999998</v>
+      </c>
+      <c r="T869">
+        <f>SUBTOTAL(9,T2:T868)</f>
+        <v>8.5600000000000023</v>
+      </c>
+      <c r="U869">
+        <f>SUBTOTAL(9,U709:U868)</f>
+        <v>417722</v>
+      </c>
+      <c r="V869">
+        <f>SUBTOTAL(9,V716:V868)</f>
+        <v>181054</v>
+      </c>
+      <c r="W869">
+        <f>SUBTOTAL(9,W716:W868)</f>
+        <v>18.2</v>
+      </c>
+      <c r="X869">
+        <f>SUBTOTAL(9,X709:X868)</f>
+        <v>38.849999999999994</v>
+      </c>
+      <c r="Y869">
+        <v>0</v>
+      </c>
+      <c r="Z869">
+        <v>0</v>
+      </c>
+      <c r="AA869">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:AA868" xr:uid="{908E9DC9-40F5-4023-ABB7-C3DA91B21832}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2016"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>